--- a/blanco-meta/telegrams/RequestHeader.xlsx
+++ b/blanco-meta/telegrams/RequestHeader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/atr/assemulator/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4A3FD-1BC3-4F42-976E-D137D9EF3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00439FFA-BC65-144D-A48C-C990425DA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="必須" localSheetId="1">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>クラス名</t>
   </si>
@@ -458,6 +458,31 @@
       <t>ソウショウガタ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークン認証に使うトークン文字列</t>
+    <rPh sb="4" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジレテゥ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1146,6 +1171,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,30 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,8 +1626,8 @@
   </sheetPr>
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1744,10 +1769,10 @@
       <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="61" t="s">
         <v>51</v>
       </c>
@@ -1790,10 +1815,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -2513,83 +2538,83 @@
       <c r="W44" s="67"/>
     </row>
     <row r="45" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="92" t="s">
+      <c r="I45" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="92" t="s">
+      <c r="J45" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="92" t="s">
+      <c r="K45" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="L45" s="92" t="s">
+      <c r="L45" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="M45" s="104" t="s">
+      <c r="M45" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="N45" s="104" t="s">
+      <c r="N45" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="102" t="s">
+      <c r="O45" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102" t="s">
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="102"/>
+      <c r="R45" s="97"/>
       <c r="S45" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="99" t="s">
+      <c r="T45" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="U45" s="99"/>
-      <c r="V45" s="96" t="s">
+      <c r="U45" s="94"/>
+      <c r="V45" s="104" t="s">
         <v>71</v>
       </c>
       <c r="W45" s="67"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
       <c r="O46" s="73" t="s">
         <v>20</v>
       </c>
@@ -2605,21 +2630,29 @@
       <c r="S46" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
-      <c r="V46" s="96"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="104"/>
       <c r="W46" s="67"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="74">
         <v>1</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
+      <c r="B47" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="D47" s="76"/>
       <c r="E47" s="77"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="78"/>
+      <c r="F47" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>37</v>
+      </c>
       <c r="H47" s="76"/>
       <c r="I47" s="76"/>
       <c r="J47" s="79"/>
@@ -2634,7 +2667,9 @@
       <c r="S47" s="76"/>
       <c r="T47" s="76"/>
       <c r="U47" s="80"/>
-      <c r="V47" s="79"/>
+      <c r="V47" s="79" t="s">
+        <v>74</v>
+      </c>
       <c r="W47" s="67"/>
     </row>
     <row r="48" spans="1:27">
@@ -2996,6 +3031,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="L45:L46"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="T45:U46"/>
     <mergeCell ref="A45:A46"/>
@@ -3012,10 +3051,6 @@
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="L45:L46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="7">

--- a/blanco-meta/telegrams/RequestHeader.xlsx
+++ b/blanco-meta/telegrams/RequestHeader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00439FFA-BC65-144D-A48C-C990425DA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F1790-A3F6-D949-9BB3-508B4FE82C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>クラス名</t>
   </si>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>言語コード</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1171,6 +1179,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1194,21 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1626,8 +1634,8 @@
   </sheetPr>
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1769,10 +1777,10 @@
       <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="61" t="s">
         <v>51</v>
       </c>
@@ -1815,10 +1823,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -2538,83 +2546,83 @@
       <c r="W44" s="67"/>
     </row>
     <row r="45" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="E45" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="94" t="s">
+      <c r="F45" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="98" t="s">
+      <c r="G45" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="100" t="s">
+      <c r="H45" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="100" t="s">
+      <c r="I45" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="100" t="s">
+      <c r="J45" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="100" t="s">
+      <c r="K45" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="L45" s="100" t="s">
+      <c r="L45" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="M45" s="99" t="s">
+      <c r="M45" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="N45" s="99" t="s">
+      <c r="N45" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="97" t="s">
+      <c r="O45" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97" t="s">
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="97"/>
+      <c r="R45" s="102"/>
       <c r="S45" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="94" t="s">
+      <c r="T45" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="U45" s="94"/>
-      <c r="V45" s="104" t="s">
+      <c r="U45" s="99"/>
+      <c r="V45" s="96" t="s">
         <v>71</v>
       </c>
       <c r="W45" s="67"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="95"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
       <c r="O46" s="73" t="s">
         <v>20</v>
       </c>
@@ -2630,9 +2638,9 @@
       <c r="S46" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="104"/>
+      <c r="T46" s="99"/>
+      <c r="U46" s="99"/>
+      <c r="V46" s="96"/>
       <c r="W46" s="67"/>
     </row>
     <row r="47" spans="1:27">
@@ -2677,12 +2685,20 @@
         <f>A47+1</f>
         <v>2</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="76"/>
+      <c r="B48" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>73</v>
+      </c>
       <c r="D48" s="76"/>
       <c r="E48" s="77"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="78"/>
+      <c r="F48" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="78" t="s">
+        <v>37</v>
+      </c>
       <c r="H48" s="76"/>
       <c r="I48" s="79"/>
       <c r="J48" s="79"/>
@@ -2697,7 +2713,9 @@
       <c r="S48" s="76"/>
       <c r="T48" s="76"/>
       <c r="U48" s="80"/>
-      <c r="V48" s="79"/>
+      <c r="V48" s="79" t="s">
+        <v>77</v>
+      </c>
       <c r="W48" s="67"/>
     </row>
     <row r="49" spans="1:23">
@@ -3031,6 +3049,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="V45:V46"/>
@@ -3047,10 +3069,6 @@
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="7">

--- a/blanco-meta/telegrams/RequestHeader.xlsx
+++ b/blanco-meta/telegrams/RequestHeader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F1790-A3F6-D949-9BB3-508B4FE82C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF22B0F-FC98-9A45-B044-4D559CBD0E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,28 +468,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>null</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>言語コード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>トークン認証に使うトークン文字列</t>
-    <rPh sb="4" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツカウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジレテゥ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>言語コード</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1180,6 +1171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,9 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1634,8 +1625,8 @@
   </sheetPr>
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1777,10 +1768,10 @@
       <c r="U8" s="54"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="61" t="s">
         <v>51</v>
       </c>
@@ -1823,10 +1814,10 @@
         <v>69</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
@@ -2546,83 +2537,83 @@
       <c r="W44" s="67"/>
     </row>
     <row r="45" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="92" t="s">
+      <c r="I45" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J45" s="92" t="s">
+      <c r="J45" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="92" t="s">
+      <c r="K45" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="L45" s="92" t="s">
+      <c r="L45" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M45" s="104" t="s">
+      <c r="M45" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="N45" s="104" t="s">
+      <c r="N45" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="102" t="s">
+      <c r="O45" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102" t="s">
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="102"/>
+      <c r="R45" s="103"/>
       <c r="S45" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="99" t="s">
+      <c r="T45" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="U45" s="99"/>
-      <c r="V45" s="96" t="s">
+      <c r="U45" s="100"/>
+      <c r="V45" s="97" t="s">
         <v>71</v>
       </c>
       <c r="W45" s="67"/>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
       <c r="O46" s="73" t="s">
         <v>20</v>
       </c>
@@ -2638,9 +2629,9 @@
       <c r="S46" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="99"/>
-      <c r="U46" s="99"/>
-      <c r="V46" s="96"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="97"/>
       <c r="W46" s="67"/>
     </row>
     <row r="47" spans="1:27">
@@ -2656,7 +2647,7 @@
       <c r="D47" s="76"/>
       <c r="E47" s="77"/>
       <c r="F47" s="76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" s="78" t="s">
         <v>37</v>
@@ -2673,11 +2664,11 @@
       <c r="Q47" s="76"/>
       <c r="R47" s="76"/>
       <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
+      <c r="T47" s="76" t="s">
+        <v>77</v>
+      </c>
       <c r="U47" s="80"/>
-      <c r="V47" s="79" t="s">
-        <v>74</v>
-      </c>
+      <c r="V47" s="79"/>
       <c r="W47" s="67"/>
     </row>
     <row r="48" spans="1:27">
@@ -2686,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="76" t="s">
         <v>73</v>
@@ -2694,7 +2685,7 @@
       <c r="D48" s="76"/>
       <c r="E48" s="77"/>
       <c r="F48" s="76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G48" s="78" t="s">
         <v>37</v>
@@ -2711,11 +2702,11 @@
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
+      <c r="T48" s="76" t="s">
+        <v>76</v>
+      </c>
       <c r="U48" s="80"/>
-      <c r="V48" s="79" t="s">
-        <v>77</v>
-      </c>
+      <c r="V48" s="79"/>
       <c r="W48" s="67"/>
     </row>
     <row r="49" spans="1:23">
@@ -3049,11 +3040,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="V45:V46"/>
     <mergeCell ref="L45:L46"/>
@@ -3069,6 +3055,11 @@
     <mergeCell ref="Q45:R45"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="7">

--- a/blanco-meta/telegrams/RequestHeader.xlsx
+++ b/blanco-meta/telegrams/RequestHeader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6635085-D170-2E43-834B-A6D8BBDC6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E049188-70C4-6347-ABC8-85302F55B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="900" windowWidth="24700" windowHeight="17100" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,11 +481,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>javax.validation.Valid</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Locale()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jakarta.validation.Valid</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1231,26 +1231,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,25 +1261,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1293,7 +1291,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,14 +1325,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1378,24 +1371,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1410,13 +1389,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,9 +1411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,17 +1838,17 @@
   </sheetPr>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="10" width="20.1640625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="34" customWidth="1"/>
+    <col min="7" max="10" width="20.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
     <col min="13" max="17" width="9" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
@@ -1885,14 +1861,7 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1900,37 +1869,11 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
     </row>
     <row r="3" spans="1:25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
@@ -1941,14 +1884,6 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
@@ -1961,14 +1896,6 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
@@ -1978,17 +1905,9 @@
       <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="87"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
@@ -1998,56 +1917,48 @@
       <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="87"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-    </row>
-    <row r="9" spans="1:25" s="34" customFormat="1">
-      <c r="A9" s="55" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="72"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="34" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="34" customFormat="1">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:25">
+      <c r="A10" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="34" customFormat="1">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:25">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="91"/>
-      <c r="L11" s="94"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
@@ -2060,14 +1971,6 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
@@ -2081,21 +1984,13 @@
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
       <c r="L13"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-    </row>
-    <row r="14" spans="1:25" s="34" customFormat="1">
-      <c r="A14" s="52" t="s">
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="51"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2119,12 +2014,12 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:25" s="34" customFormat="1">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:25">
+      <c r="A15" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
@@ -2152,12 +2047,12 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="1:25" s="34" customFormat="1">
-      <c r="A16" s="52" t="s">
+    <row r="16" spans="1:25">
+      <c r="A16" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="51"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -2181,12 +2076,12 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" s="34" customFormat="1">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:25">
+      <c r="A17" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D17"/>
@@ -2212,12 +2107,12 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" s="34" customFormat="1">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:25">
+      <c r="A18" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="51"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -2234,12 +2129,12 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:25" s="34" customFormat="1">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:25">
+      <c r="A19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D19"/>
@@ -2256,12 +2151,12 @@
       <c r="P19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:25" s="34" customFormat="1">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:25">
+      <c r="A20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="51"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -2276,12 +2171,12 @@
       <c r="P20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:25" s="34" customFormat="1">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:25">
+      <c r="A21" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
@@ -2293,12 +2188,12 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" s="75"/>
+      <c r="L21" s="68"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" s="75"/>
+      <c r="Q21" s="68"/>
       <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
@@ -2307,115 +2202,82 @@
       <c r="W21"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="81"/>
-    </row>
-    <row r="23" spans="1:25" s="34" customFormat="1">
-      <c r="A23" s="31" t="s">
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-    </row>
-    <row r="24" spans="1:25" s="34" customFormat="1">
-      <c r="A24" s="35" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-    </row>
-    <row r="25" spans="1:25" s="34" customFormat="1">
-      <c r="A25" s="55" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-    </row>
-    <row r="26" spans="1:25" s="34" customFormat="1">
-      <c r="A26" s="55" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-    </row>
-    <row r="27" spans="1:25" s="34" customFormat="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2427,130 +2289,95 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-    </row>
-    <row r="28" spans="1:25" s="34" customFormat="1">
-      <c r="A28" s="31" t="s">
+      <c r="L27" s="69"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-    </row>
-    <row r="29" spans="1:25" s="34" customFormat="1">
-      <c r="A29" s="59" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="L28" s="69"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-    </row>
-    <row r="30" spans="1:25" s="34" customFormat="1">
-      <c r="A30" s="61">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="68"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="54">
         <v>1</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-    </row>
-    <row r="31" spans="1:25" s="34" customFormat="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-    </row>
-    <row r="32" spans="1:25" s="34" customFormat="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-    </row>
-    <row r="33" spans="1:22" s="34" customFormat="1">
+      <c r="B30" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="68"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2562,7 +2389,7 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33" s="76"/>
+      <c r="L33" s="69"/>
       <c r="M33"/>
       <c r="N33"/>
     </row>
@@ -2570,510 +2397,510 @@
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="14"/>
+      <c r="V34" s="13"/>
     </row>
     <row r="35" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="98" t="s">
+      <c r="D35" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="100" t="s">
+      <c r="F35" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="106" t="s">
+      <c r="G35" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="106" t="s">
+      <c r="H35" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="106" t="s">
+      <c r="I35" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J35" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="105" t="s">
+      <c r="K35" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="109" t="s">
+      <c r="L35" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="104"/>
-      <c r="O35" s="103" t="s">
+      <c r="N35" s="85"/>
+      <c r="O35" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="41" t="s">
+      <c r="P35" s="85"/>
+      <c r="Q35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="98" t="s">
+      <c r="R35" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="98"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="16"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="15"/>
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="42" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="42" t="s">
+      <c r="N36" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="P36" s="42" t="s">
+      <c r="P36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="Q36" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="R36" s="98"/>
-      <c r="S36" s="98"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="14"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <v>1</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="79" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93" t="s">
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" s="77"/>
-      <c r="L37" s="71" t="s">
+      <c r="J37" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="70"/>
+      <c r="L37" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79" t="s">
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="14"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <f>A37+1</f>
         <v>2</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="71" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="93" t="s">
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="79"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="71" t="s">
+      <c r="J38" s="19"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79" t="s">
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="14"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="14"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="13"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="14"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="13"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="14"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="13"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="14"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="13"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="14"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="13"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="14"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="13"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="14"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="13"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="14"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="13"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="14"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="14"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3149,94 +2976,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="256" width="8.83203125" style="45" customWidth="1"/>
-    <col min="257" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="3" width="8.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="256" width="8.83203125" style="43" customWidth="1"/>
+    <col min="257" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="44"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="51"/>
+      <c r="B6" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/blanco-meta/telegrams/RequestHeader.xlsx
+++ b/blanco-meta/telegrams/RequestHeader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E049188-70C4-6347-ABC8-85302F55B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CAA695-75DF-5C4A-AAF9-C26A45BA8A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="900" windowWidth="24700" windowHeight="17100" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>クラス名</t>
   </si>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2019,9 +2019,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="C15" s="51"/>
       <c r="D15" t="s">
         <v>70</v>
       </c>
@@ -2081,9 +2079,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="C17" s="51"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
